--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F11r-Jam2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F11r-Jam2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.90614433333333</v>
+        <v>27.636609</v>
       </c>
       <c r="H2">
-        <v>92.718433</v>
+        <v>82.90982700000001</v>
       </c>
       <c r="I2">
-        <v>0.713998684801744</v>
+        <v>0.5611737787305786</v>
       </c>
       <c r="J2">
-        <v>0.719302559836422</v>
+        <v>0.5623609389937425</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N2">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O2">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P2">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q2">
-        <v>2810.474372650391</v>
+        <v>1498.77043124809</v>
       </c>
       <c r="R2">
-        <v>25294.26935385352</v>
+        <v>13488.93388123281</v>
       </c>
       <c r="S2">
-        <v>0.675750227672395</v>
+        <v>0.5105101705843841</v>
       </c>
       <c r="T2">
-        <v>0.6852168717307006</v>
+        <v>0.5173918505296148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.90614433333333</v>
+        <v>27.636609</v>
       </c>
       <c r="H3">
-        <v>92.718433</v>
+        <v>82.90982700000001</v>
       </c>
       <c r="I3">
-        <v>0.713998684801744</v>
+        <v>0.5611737787305786</v>
       </c>
       <c r="J3">
-        <v>0.719302559836422</v>
+        <v>0.5623609389937425</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.872693</v>
       </c>
       <c r="O3">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P3">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q3">
-        <v>91.40691016111879</v>
+        <v>81.73704907267901</v>
       </c>
       <c r="R3">
-        <v>822.662191450069</v>
+        <v>735.633441654111</v>
       </c>
       <c r="S3">
-        <v>0.02197786998283718</v>
+        <v>0.0278412183715215</v>
       </c>
       <c r="T3">
-        <v>0.02228575988618783</v>
+        <v>0.02821651815036581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.90614433333333</v>
+        <v>27.636609</v>
       </c>
       <c r="H4">
-        <v>92.718433</v>
+        <v>82.90982700000001</v>
       </c>
       <c r="I4">
-        <v>0.713998684801744</v>
+        <v>0.5611737787305786</v>
       </c>
       <c r="J4">
-        <v>0.719302559836422</v>
+        <v>0.5623609389937425</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N4">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O4">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P4">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q4">
-        <v>5.348545223989889</v>
+        <v>6.762936163984001</v>
       </c>
       <c r="R4">
-        <v>48.136907015909</v>
+        <v>60.866425475856</v>
       </c>
       <c r="S4">
-        <v>0.001286003775020676</v>
+        <v>0.002303586742001367</v>
       </c>
       <c r="T4">
-        <v>0.001304019514412568</v>
+        <v>0.002334639104124503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.90614433333333</v>
+        <v>27.636609</v>
       </c>
       <c r="H5">
-        <v>92.718433</v>
+        <v>82.90982700000001</v>
       </c>
       <c r="I5">
-        <v>0.713998684801744</v>
+        <v>0.5611737787305786</v>
       </c>
       <c r="J5">
-        <v>0.719302559836422</v>
+        <v>0.5623609389937425</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N5">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O5">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P5">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q5">
-        <v>57.81504248931501</v>
+        <v>55.42234514216401</v>
       </c>
       <c r="R5">
-        <v>346.8902549358901</v>
+        <v>332.534070852984</v>
       </c>
       <c r="S5">
-        <v>0.01390104407470565</v>
+        <v>0.01887792171690458</v>
       </c>
       <c r="T5">
-        <v>0.00939719001153214</v>
+        <v>0.01275493080458684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.90614433333333</v>
+        <v>27.636609</v>
       </c>
       <c r="H6">
-        <v>92.718433</v>
+        <v>82.90982700000001</v>
       </c>
       <c r="I6">
-        <v>0.713998684801744</v>
+        <v>0.5611737787305786</v>
       </c>
       <c r="J6">
-        <v>0.719302559836422</v>
+        <v>0.5623609389937425</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N6">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O6">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P6">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q6">
-        <v>4.506486717532</v>
+        <v>4.817346526993001</v>
       </c>
       <c r="R6">
-        <v>40.558380457788</v>
+        <v>43.35611874293701</v>
       </c>
       <c r="S6">
-        <v>0.001083539296785357</v>
+        <v>0.001640881315767165</v>
       </c>
       <c r="T6">
-        <v>0.001098718693588796</v>
+        <v>0.001663000405050523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.081622</v>
+        <v>11.07680033333333</v>
       </c>
       <c r="H7">
-        <v>21.244866</v>
+        <v>33.230401</v>
       </c>
       <c r="I7">
-        <v>0.1636007629981116</v>
+        <v>0.224919413930298</v>
       </c>
       <c r="J7">
-        <v>0.1648160565567557</v>
+        <v>0.2253952298018738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N7">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O7">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P7">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q7">
-        <v>643.9728273167821</v>
+        <v>600.7097619117811</v>
       </c>
       <c r="R7">
-        <v>5795.755445851039</v>
+        <v>5406.38785720603</v>
       </c>
       <c r="S7">
-        <v>0.1548367737876839</v>
+        <v>0.2046133528067485</v>
       </c>
       <c r="T7">
-        <v>0.1570058956977619</v>
+        <v>0.2073715419431663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.081622</v>
+        <v>11.07680033333333</v>
       </c>
       <c r="H8">
-        <v>21.244866</v>
+        <v>33.230401</v>
       </c>
       <c r="I8">
-        <v>0.1636007629981116</v>
+        <v>0.224919413930298</v>
       </c>
       <c r="J8">
-        <v>0.1648160565567557</v>
+        <v>0.2253952298018738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.872693</v>
       </c>
       <c r="O8">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P8">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q8">
-        <v>20.94435264934867</v>
+        <v>32.76034959332144</v>
       </c>
       <c r="R8">
-        <v>188.499173844138</v>
+        <v>294.843146339893</v>
       </c>
       <c r="S8">
-        <v>0.005035858433358102</v>
+        <v>0.01115880812070958</v>
       </c>
       <c r="T8">
-        <v>0.005106406214719307</v>
+        <v>0.01130922891637965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.081622</v>
+        <v>11.07680033333333</v>
       </c>
       <c r="H9">
-        <v>21.244866</v>
+        <v>33.230401</v>
       </c>
       <c r="I9">
-        <v>0.1636007629981116</v>
+        <v>0.224919413930298</v>
       </c>
       <c r="J9">
-        <v>0.1648160565567557</v>
+        <v>0.2253952298018738</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N9">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O9">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P9">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q9">
-        <v>1.225528979535333</v>
+        <v>2.710596425036444</v>
       </c>
       <c r="R9">
-        <v>11.029760815818</v>
+        <v>24.395367825328</v>
       </c>
       <c r="S9">
-        <v>0.0002946660873335554</v>
+        <v>0.0009232815209587758</v>
       </c>
       <c r="T9">
-        <v>0.0002987940903302376</v>
+        <v>0.000935727361007978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.081622</v>
+        <v>11.07680033333333</v>
       </c>
       <c r="H10">
-        <v>21.244866</v>
+        <v>33.230401</v>
       </c>
       <c r="I10">
-        <v>0.1636007629981116</v>
+        <v>0.224919413930298</v>
       </c>
       <c r="J10">
-        <v>0.1648160565567557</v>
+        <v>0.2253952298018738</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N10">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O10">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P10">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q10">
-        <v>13.24734241863</v>
+        <v>22.21337108126534</v>
       </c>
       <c r="R10">
-        <v>79.48405451178002</v>
+        <v>133.280226487592</v>
       </c>
       <c r="S10">
-        <v>0.003185189924717727</v>
+        <v>0.007566303433480177</v>
       </c>
       <c r="T10">
-        <v>0.002153207686022247</v>
+        <v>0.005112198163960386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.081622</v>
+        <v>11.07680033333333</v>
       </c>
       <c r="H11">
-        <v>21.244866</v>
+        <v>33.230401</v>
       </c>
       <c r="I11">
-        <v>0.1636007629981116</v>
+        <v>0.224919413930298</v>
       </c>
       <c r="J11">
-        <v>0.1648160565567557</v>
+        <v>0.2253952298018738</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N11">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O11">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P11">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q11">
-        <v>1.032585467064</v>
+        <v>1.930800758370111</v>
       </c>
       <c r="R11">
-        <v>9.293269203576001</v>
+        <v>17.377206825331</v>
       </c>
       <c r="S11">
-        <v>0.0002482747650182909</v>
+        <v>0.0006576680484009514</v>
       </c>
       <c r="T11">
-        <v>0.0002517528679220564</v>
+        <v>0.0006665334173594563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.9575255</v>
+        <v>0.311891</v>
       </c>
       <c r="H12">
-        <v>1.915051</v>
+        <v>0.6237819999999999</v>
       </c>
       <c r="I12">
-        <v>0.02212090710152961</v>
+        <v>0.006333087066581101</v>
       </c>
       <c r="J12">
-        <v>0.0148568201807002</v>
+        <v>0.00423098978661956</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N12">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O12">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P12">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q12">
-        <v>87.07332916991551</v>
+        <v>16.91426790357666</v>
       </c>
       <c r="R12">
-        <v>522.439975019493</v>
+        <v>101.48560742146</v>
       </c>
       <c r="S12">
-        <v>0.02093590412471026</v>
+        <v>0.005761326493193651</v>
       </c>
       <c r="T12">
-        <v>0.01415279802479783</v>
+        <v>0.0038926594709583</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.9575255</v>
+        <v>0.311891</v>
       </c>
       <c r="H13">
-        <v>1.915051</v>
+        <v>0.6237819999999999</v>
       </c>
       <c r="I13">
-        <v>0.02212090710152961</v>
+        <v>0.006333087066581101</v>
       </c>
       <c r="J13">
-        <v>0.0148568201807002</v>
+        <v>0.00423098978661956</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.872693</v>
       </c>
       <c r="O13">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P13">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q13">
-        <v>2.831943267057167</v>
+        <v>0.9224376974876666</v>
       </c>
       <c r="R13">
-        <v>16.991659602343</v>
+        <v>5.534626184925999</v>
       </c>
       <c r="S13">
-        <v>0.0006809122068828911</v>
+        <v>0.0003142001046189209</v>
       </c>
       <c r="T13">
-        <v>0.0004603007770397057</v>
+        <v>0.0002122903491870932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.9575255</v>
+        <v>0.311891</v>
       </c>
       <c r="H14">
-        <v>1.915051</v>
+        <v>0.6237819999999999</v>
       </c>
       <c r="I14">
-        <v>0.02212090710152961</v>
+        <v>0.006333087066581101</v>
       </c>
       <c r="J14">
-        <v>0.0148568201807002</v>
+        <v>0.00423098978661956</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N14">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O14">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P14">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q14">
-        <v>0.1657071288038333</v>
+        <v>0.07632263868266666</v>
       </c>
       <c r="R14">
-        <v>0.994242772823</v>
+        <v>0.457935832096</v>
       </c>
       <c r="S14">
-        <v>3.984260845991304E-05</v>
+        <v>2.599696556656239E-05</v>
       </c>
       <c r="T14">
-        <v>2.69338446983385E-05</v>
+        <v>1.756493653821025E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.9575255</v>
+        <v>0.311891</v>
       </c>
       <c r="H15">
-        <v>1.915051</v>
+        <v>0.6237819999999999</v>
       </c>
       <c r="I15">
-        <v>0.02212090710152961</v>
+        <v>0.006333087066581101</v>
       </c>
       <c r="J15">
-        <v>0.0148568201807002</v>
+        <v>0.00423098978661956</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N15">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O15">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P15">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q15">
-        <v>1.7912094394575</v>
+        <v>0.625464963836</v>
       </c>
       <c r="R15">
-        <v>7.164837757830001</v>
+        <v>2.501859855344</v>
       </c>
       <c r="S15">
-        <v>0.0004306782507256535</v>
+        <v>0.0002130454529427646</v>
       </c>
       <c r="T15">
-        <v>0.0001940940711193279</v>
+        <v>9.59632474826752E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.311891</v>
+      </c>
+      <c r="H16">
+        <v>0.6237819999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.006333087066581101</v>
+      </c>
+      <c r="J16">
+        <v>0.00423098978661956</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.9575255</v>
-      </c>
-      <c r="H16">
-        <v>1.915051</v>
-      </c>
-      <c r="I16">
-        <v>0.02212090710152961</v>
-      </c>
-      <c r="J16">
-        <v>0.0148568201807002</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N16">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O16">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P16">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q16">
-        <v>0.139618708206</v>
+        <v>0.05436582417366666</v>
       </c>
       <c r="R16">
-        <v>0.837712249236</v>
+        <v>0.326194945042</v>
       </c>
       <c r="S16">
-        <v>3.356991075088751E-05</v>
+        <v>1.851805025920281E-05</v>
       </c>
       <c r="T16">
-        <v>2.269346304500118E-05</v>
+        <v>1.251178245328175E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.340704333333334</v>
+        <v>10.222562</v>
       </c>
       <c r="H17">
-        <v>13.022113</v>
+        <v>30.667686</v>
       </c>
       <c r="I17">
-        <v>0.1002796450986148</v>
+        <v>0.2075737202725422</v>
       </c>
       <c r="J17">
-        <v>0.1010245634261221</v>
+        <v>0.208012841417764</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N17">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O17">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P17">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q17">
-        <v>394.7253386417511</v>
+        <v>554.3832695682868</v>
       </c>
       <c r="R17">
-        <v>3552.528047775759</v>
+        <v>4989.44942611458</v>
       </c>
       <c r="S17">
-        <v>0.09490772805150466</v>
+        <v>0.1888336543180621</v>
       </c>
       <c r="T17">
-        <v>0.09623729871689796</v>
+        <v>0.191379133030891</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.340704333333334</v>
+        <v>10.222562</v>
       </c>
       <c r="H18">
-        <v>13.022113</v>
+        <v>30.667686</v>
       </c>
       <c r="I18">
-        <v>0.1002796450986148</v>
+        <v>0.2075737202725422</v>
       </c>
       <c r="J18">
-        <v>0.1010245634261221</v>
+        <v>0.208012841417764</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.872693</v>
       </c>
       <c r="O18">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P18">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q18">
-        <v>12.83791231781211</v>
+        <v>30.23388476648867</v>
       </c>
       <c r="R18">
-        <v>115.541210860309</v>
+        <v>272.104962898398</v>
       </c>
       <c r="S18">
-        <v>0.003086746584854532</v>
+        <v>0.01029824538019182</v>
       </c>
       <c r="T18">
-        <v>0.003129989087809595</v>
+        <v>0.01043706578532264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.340704333333334</v>
+        <v>10.222562</v>
       </c>
       <c r="H19">
-        <v>13.022113</v>
+        <v>30.667686</v>
       </c>
       <c r="I19">
-        <v>0.1002796450986148</v>
+        <v>0.2075737202725422</v>
       </c>
       <c r="J19">
-        <v>0.1010245634261221</v>
+        <v>0.208012841417764</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N19">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O19">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P19">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q19">
-        <v>0.7511921636165556</v>
+        <v>2.501556331978667</v>
       </c>
       <c r="R19">
-        <v>6.760729472549</v>
+        <v>22.514006987808</v>
       </c>
       <c r="S19">
-        <v>0.0001806165822145184</v>
+        <v>0.0008520784258476495</v>
       </c>
       <c r="T19">
-        <v>0.0001831468557162263</v>
+        <v>0.0008635644477778439</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.340704333333334</v>
+        <v>10.222562</v>
       </c>
       <c r="H20">
-        <v>13.022113</v>
+        <v>30.667686</v>
       </c>
       <c r="I20">
-        <v>0.1002796450986148</v>
+        <v>0.2075737202725422</v>
       </c>
       <c r="J20">
-        <v>0.1010245634261221</v>
+        <v>0.208012841417764</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N20">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O20">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P20">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q20">
-        <v>8.120003671715002</v>
+        <v>20.50028494455201</v>
       </c>
       <c r="R20">
-        <v>48.72002203029001</v>
+        <v>123.001709667312</v>
       </c>
       <c r="S20">
-        <v>0.001952373016903742</v>
+        <v>0.006982793192254646</v>
       </c>
       <c r="T20">
-        <v>0.00131981598753554</v>
+        <v>0.004717947522273765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.340704333333334</v>
+        <v>10.222562</v>
       </c>
       <c r="H21">
-        <v>13.022113</v>
+        <v>30.667686</v>
       </c>
       <c r="I21">
-        <v>0.1002796450986148</v>
+        <v>0.2075737202725422</v>
       </c>
       <c r="J21">
-        <v>0.1010245634261221</v>
+        <v>0.208012841417764</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N21">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O21">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P21">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q21">
-        <v>0.6329267802520001</v>
+        <v>1.781898189740667</v>
       </c>
       <c r="R21">
-        <v>5.696341022268</v>
+        <v>16.037083707666</v>
       </c>
       <c r="S21">
-        <v>0.0001521808631373166</v>
+        <v>0.0006069489561860292</v>
       </c>
       <c r="T21">
-        <v>0.000154312778162738</v>
+        <v>0.0006151306314987519</v>
       </c>
     </row>
   </sheetData>
